--- a/VOTEDSPENDING.xlsx
+++ b/VOTEDSPENDING.xlsx
@@ -27,12 +27,13 @@
     <sheet name="july-2025" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="august-2025" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="september-2025" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="october-2025" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Total Net Cumulative Voted Spending                                    5,249,412        6,297,390        1,047,978       20.0%</t>
   </si>
@@ -92,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Total Gross Cumulative Voted Spending                               77,363       77,502          139          0.2%               5,402         7.5%             106,321       103,472        2,849         2.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Gross Cumulative Voted Spending                               87,160       87,127          -33          0.0%               6,237         7.7%             107,015       103,472        3,543         3.4%</t>
   </si>
 </sst>
 </file>
@@ -675,6 +679,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>

--- a/VOTEDSPENDING.xlsx
+++ b/VOTEDSPENDING.xlsx
@@ -28,12 +28,13 @@
     <sheet name="august-2025" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="september-2025" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="october-2025" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="november-2025" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Total Net Cumulative Voted Spending                                    5,249,412        6,297,390        1,047,978       20.0%</t>
   </si>
@@ -96,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Total Gross Cumulative Voted Spending                               87,160       87,127          -33          0.0%               6,237         7.7%             107,015       103,472        3,543         3.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Gross Cumulative Voted Spending                               96,914       97,288          374          0.4%               5,240         5.7%             107,015       103,472        3,543         3.4%</t>
   </si>
 </sst>
 </file>
@@ -698,6 +702,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
